--- a/Tomoru/Создание Резюме/Negative_Test_Suites.xlsx
+++ b/Tomoru/Создание Резюме/Negative_Test_Suites.xlsx
@@ -5,27 +5,36 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\night\git\portfolio\Tomoru\Regress\Профиль\Создание Резюме\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\night\git\portfolio\Test-Suites-and-Test-Cases\Tomoru\Создание Резюме\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D333765-0AAF-463A-AFC0-BB162881724A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66F10A30-BB63-4035-B5BE-EFEDE3C2D40E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="768" yWindow="720" windowWidth="11712" windowHeight="12240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="38">
   <si>
     <t>ID</t>
   </si>
@@ -68,9 +77,6 @@
   </si>
   <si>
     <t>Суб-модуль</t>
-  </si>
-  <si>
-    <t>Указывается сообщение "Указано неправильно значение в поле Желаемый доход"</t>
   </si>
   <si>
     <t xml:space="preserve">1. Нажать "Добавить основное"
@@ -154,6 +160,30 @@
   </si>
   <si>
     <t>Неудачная отправка резюме с заполненным "Подробоности" без заполненного "Основное"</t>
+  </si>
+  <si>
+    <t>Комментарий</t>
+  </si>
+  <si>
+    <t>Показывается сообщение "Указано неправильно значение в поле Желаемый доход"</t>
+  </si>
+  <si>
+    <t>Средний</t>
+  </si>
+  <si>
+    <t>Низкий</t>
+  </si>
+  <si>
+    <t>Баги в кейсе приведут к тому, что клиент создаст резюме без важных данных, из-за этого будет нарушена бизнес-логика продукта и не будет достигнут желаемый результат</t>
+  </si>
+  <si>
+    <t>При создании резюме с отрицательным доходом нет смысла вообще искать работу. Ошибка не значительная, но может привести к снижению репутации продукта</t>
+  </si>
+  <si>
+    <t>Баги в данном кейсе не значительны, но при критическом сбое программы могут удалиться уже заполненные данные клиента, из-за чего ему понадобитсся все заполнять заново. Снизит лояльность к продукту</t>
+  </si>
+  <si>
+    <t>Данный кейс крайне важен, так как при баге будет отсутствовать возможность заполнить блок "Опыт работы".</t>
   </si>
 </sst>
 </file>
@@ -232,7 +262,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -248,6 +278,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -529,10 +568,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:K8"/>
+  <dimension ref="B1:L9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3:G8"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -546,10 +585,12 @@
     <col min="8" max="8" width="25.21875" style="1" customWidth="1"/>
     <col min="9" max="9" width="39.44140625" style="1" customWidth="1"/>
     <col min="10" max="10" width="25.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="14.88671875" customWidth="1"/>
+    <col min="12" max="12" width="52.109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:11" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
@@ -580,65 +621,76 @@
       <c r="K2" s="4" t="s">
         <v>8</v>
       </c>
+      <c r="L2" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="3" spans="2:11" ht="291" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="2">
+    <row r="3" spans="2:12" ht="155.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="5">
         <v>1</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="2"/>
+      <c r="D3" s="5"/>
       <c r="E3" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H3" s="2" t="s">
+      <c r="G3" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="I3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="K3" s="2"/>
+      <c r="I3" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="K3" s="5"/>
+      <c r="L3" s="7" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="4" spans="2:11" ht="240" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:12" ht="86.4" x14ac:dyDescent="0.3">
       <c r="B4" s="2">
+        <f t="shared" ref="B4:B9" si="0">B3+1</f>
         <v>2</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="2"/>
+      <c r="D4" s="5"/>
       <c r="E4" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="H4" s="2" t="s">
+      <c r="G4" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="I4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="K4" s="2"/>
+      <c r="I4" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="K4" s="5"/>
+      <c r="L4" s="7" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="5" spans="2:11" ht="332.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="5">
+    <row r="5" spans="2:12" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="B5" s="2">
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="C5" s="5" t="s">
@@ -658,71 +710,83 @@
         <v>12</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K5" s="5"/>
+      <c r="L5" s="7" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="6" spans="2:11" ht="186" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="5">
+    <row r="6" spans="2:12" ht="186" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="2">
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C6" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="5"/>
+      <c r="C6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" s="2"/>
       <c r="E6" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="H6" s="5" t="s">
+      <c r="G6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="I6" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="J6" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="K6" s="5"/>
+      <c r="I6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K6" s="2"/>
+      <c r="L6" s="8" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="7" spans="2:11" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="B7" s="5">
+    <row r="7" spans="2:12" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="B7" s="2">
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C7" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="5"/>
+      <c r="C7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" s="2"/>
       <c r="E7" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="H7" s="5" t="s">
+      <c r="G7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="I7" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="J7" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="K7" s="5"/>
+      <c r="I7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K7" s="2"/>
+      <c r="L7" s="7" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="8" spans="2:11" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="B8" s="5">
+    <row r="8" spans="2:12" ht="216" x14ac:dyDescent="0.3">
+      <c r="B8" s="2">
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="C8" s="5" t="s">
@@ -736,18 +800,53 @@
         <v>11</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H8" s="5" t="s">
         <v>12</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="K8" s="5"/>
+      <c r="L8" s="7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" ht="247.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="2">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="5"/>
+      <c r="E9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="K9" s="5"/>
+      <c r="L9" s="7" t="s">
+        <v>37</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
